--- a/Design/客户端框架设计.xlsx
+++ b/Design/客户端框架设计.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E16A1810-FB4B-4B66-8403-F04FA88EF974}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C10B2DE7-AA3A-4B46-9352-7ECFD14307A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="客户端框架" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Plugins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scripts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AStarPathFinding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,35 +86,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WorldMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加入的架构机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathFinder算法（a*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WorldMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要加入的架构机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiAutoBind属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathFinder算法（a*)</t>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIAutoBind属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -485,35 +490,35 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -521,57 +526,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>24</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -579,4 +587,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7096CFAD-0349-4C67-8557-794A35932057}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>